--- a/2025/11/2025-11-01/01_oddspedia_fixtures.xlsx
+++ b/2025/11/2025-11-01/01_oddspedia_fixtures.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,12 +473,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Nottingham Forest vs Man Utd</t>
+          <t>Brighton vs Leeds</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -493,29 +493,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>33 of 50 Tips</t>
+          <t>96 of 123 Tips</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>78</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>2.00</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Brighton vs Leeds</t>
+          <t>Nottingham Forest vs Man Utd</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -530,29 +530,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>28 of 34 Tips</t>
+          <t>95 of 140 Tips</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>68</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.05</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Burnley vs Arsenal</t>
+          <t>Fulham vs Wolves</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -567,103 +567,103 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>24 of 28 Tips</t>
+          <t>61 of 91 Tips</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>67</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>1.80</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Oriente Petrolero vs Guabira</t>
+          <t>Heidenheim vs Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Oriente Petrolero</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3rd Nov 19:00</t>
+          <t>1st Nov 14:30</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>20 of 20 Tips</t>
+          <t>60 of 65 Tips</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>92</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.85</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Huachipato vs Universidad de Chile</t>
+          <t>Liverpool vs Aston Villa</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Universidad de Chile</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>England</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2nd Nov 15:30</t>
+          <t>1st Nov 20:00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>17 of 18 Tips</t>
+          <t>59 of 86 Tips</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>69</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>1.65</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Fulham vs Wolves</t>
+          <t>Burnley vs Arsenal</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -678,165 +678,165 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>15 of 24 Tips</t>
+          <t>59 of 71 Tips</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>83</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.26</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Real Madrid vs Valencia</t>
+          <t>Napoli vs Como</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1st Nov 20:00</t>
+          <t>1st Nov 17:00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>15 of 16 Tips</t>
+          <t>44 of 58 Tips</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>76</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.91</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Teplice II vs Mlada Boleslav II</t>
+          <t>RB Leipzig vs Stuttgart</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Mlada Boleslav II</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1st Nov 10:00</t>
+          <t>1st Nov 14:30</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>15 of 16 Tips</t>
+          <t>44 of 57 Tips</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>77</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>2.10</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>West Ham vs Newcastle</t>
+          <t>Real Madrid vs Valencia</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2nd Nov 14:00</t>
+          <t>1st Nov 20:00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>14 of 18 Tips</t>
+          <t>44 of 48 Tips</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>92</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.18</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Villarreal vs Rayo Vallecano</t>
+          <t>Monaco vs Paris FC</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>France</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1st Nov 13:00</t>
+          <t>1st Nov 18:00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>13 of 16 Tips</t>
+          <t>43 of 51 Tips</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>84</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.67</t>
         </is>
       </c>
     </row>
@@ -863,245 +863,282 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>13 of 14 Tips</t>
+          <t>42 of 49 Tips</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>86</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>1.52</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Caykur Rizespor vs Fatih Karagumruk</t>
+          <t>Auxerre vs Marseille</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Caykur Rizespor</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>France</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3rd Nov 17:00</t>
+          <t>1st Nov 20:05</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>13 of 13 Tips</t>
+          <t>39 of 45 Tips</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>87</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.70</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Flint Town United vs Penybont</t>
+          <t>Udinese vs Atalanta</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Double Chance: 1X</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Wales</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1st Nov 14:30</t>
+          <t>1st Nov 14:00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11 of 11 Tips</t>
+          <t>33 of 53 Tips</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>62</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1.77</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Heidenheim vs Eintracht Frankfurt</t>
+          <t>PSG vs Nice</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>PSG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>France</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1st Nov 14:30</t>
+          <t>1st Nov 16:00</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11 of 11 Tips</t>
+          <t>28 of 31 Tips</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>90</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.20</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Palestino vs Deportes Limache</t>
+          <t>Atletico Madrid vs Sevilla</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Palestino</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3rd Nov 22:00</t>
+          <t>1st Nov 15:15</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10 of 10 Tips</t>
+          <t>27 of 33 Tips</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>82</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.35</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Man City vs Bournemouth</t>
+          <t>Ajax vs Heerenveen</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2nd Nov 16:30</t>
+          <t>1st Nov 15:30</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>9 of 14 Tips</t>
+          <t>26 of 29 Tips</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>90</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>1.55</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Udinese vs Atalanta</t>
+          <t>Bayern Munich vs Bayer Leverkusen</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1st Nov 14:00</t>
+          <t>1st Nov 17:30</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>9 of 12 Tips</t>
+          <t>25 of 30 Tips</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>83</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>1.23</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="H19">
-        <f>AVERAGE(F2:F18)</f>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Huachipato vs Universidad de Chile</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Universidad de Chile</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2nd Nov 15:30</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>25 of 26 Tips</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="H20">
+        <f>AVERAGE(F2:F19)</f>
         <v/>
       </c>
     </row>

--- a/2025/11/2025-11-01/01_oddspedia_fixtures.xlsx
+++ b/2025/11/2025-11-01/01_oddspedia_fixtures.xlsx
@@ -473,12 +473,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Brighton vs Leeds</t>
+          <t>Liverpool vs Aston Villa</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -488,651 +488,651 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1st Nov 15:00</t>
+          <t>1st Nov 20:00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>96 of 123 Tips</t>
+          <t>64 of 96 Tips</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>67</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.69</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Nottingham Forest vs Man Utd</t>
+          <t>Monaco vs Paris FC</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>France</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1st Nov 15:00</t>
+          <t>1st Nov 18:00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>95 of 140 Tips</t>
+          <t>61 of 71 Tips</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>86</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>1.67</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Fulham vs Wolves</t>
+          <t>Napoli vs Como</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1st Nov 15:00</t>
+          <t>1st Nov 17:00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>61 of 91 Tips</t>
+          <t>56 of 74 Tips</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>76</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.95</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Heidenheim vs Eintracht Frankfurt</t>
+          <t>Real Madrid vs Valencia</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1st Nov 14:30</t>
+          <t>1st Nov 20:00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>60 of 65 Tips</t>
+          <t>52 of 56 Tips</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>93</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.18</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Liverpool vs Aston Villa</t>
+          <t>Cremonese vs Juventus</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1st Nov 20:00</t>
+          <t>1st Nov 19:45</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>59 of 86 Tips</t>
+          <t>51 of 61 Tips</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>84</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.52</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Burnley vs Arsenal</t>
+          <t>Auxerre vs Marseille</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>France</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1st Nov 15:00</t>
+          <t>1st Nov 20:05</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>59 of 71 Tips</t>
+          <t>51 of 61 Tips</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>84</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>1.68</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Napoli vs Como</t>
+          <t>Bayern Munich vs Bayer Leverkusen</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1st Nov 17:00</t>
+          <t>1st Nov 17:30</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>44 of 58 Tips</t>
+          <t>29 of 34 Tips</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>85</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>1.23</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>RB Leipzig vs Stuttgart</t>
+          <t>Almeria vs SD Eibar</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Almeria</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1st Nov 14:30</t>
+          <t>1st Nov 20:00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>44 of 57 Tips</t>
+          <t>25 of 35 Tips</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>71</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>1.73</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Real Madrid vs Valencia</t>
+          <t>Huachipato vs Universidad de Chile</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Universidad de Chile</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1st Nov 20:00</t>
+          <t>2nd Nov 15:30</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>44 of 48 Tips</t>
+          <t>25 of 26 Tips</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>96</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.73</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Monaco vs Paris FC</t>
+          <t>Real Madrid vs Valencia</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>1st Half Result: Real Madrid</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1st Nov 18:00</t>
+          <t>1st Nov 20:00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>43 of 51 Tips</t>
+          <t>23 of 29 Tips</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>79</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>1.52</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Cremonese vs Juventus</t>
+          <t>West Ham vs Newcastle</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>England</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1st Nov 19:45</t>
+          <t>2nd Nov 14:00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>42 of 49 Tips</t>
+          <t>23 of 27 Tips</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>85</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>1.61</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Auxerre vs Marseille</t>
+          <t>Cruzeiro vs Vitoria BA</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1st Nov 20:05</t>
+          <t>1st Nov 19:00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>39 of 45 Tips</t>
+          <t>22 of 23 Tips</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>96</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.44</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Udinese vs Atalanta</t>
+          <t>Oriente Petrolero vs Guabira</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Oriente Petrolero</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Bolivia</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1st Nov 14:00</t>
+          <t>3rd Nov 19:00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>33 of 53 Tips</t>
+          <t>20 of 20 Tips</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>1.68</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>PSG vs Nice</t>
+          <t>Velez Sarsfield vs Talleres de Cordoba</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PSG</t>
+          <t>Velez Sarsfield</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1st Nov 16:00</t>
+          <t>1st Nov 20:00</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>28 of 31 Tips</t>
+          <t>19 of 24 Tips</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>79</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>2.15</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Atletico Madrid vs Sevilla</t>
+          <t>Palestino vs Deportes Limache</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Palestino</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1st Nov 15:15</t>
+          <t>3rd Nov 22:00</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>27 of 33 Tips</t>
+          <t>19 of 19 Tips</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.79</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Ajax vs Heerenveen</t>
+          <t>Bayern Munich vs Bayer Leverkusen</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>1st Half Result: Bayern Munich</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1st Nov 15:30</t>
+          <t>1st Nov 17:30</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>26 of 29 Tips</t>
+          <t>17 of 23 Tips</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>74</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.57</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Bayern Munich vs Bayer Leverkusen</t>
+          <t>Club Brugge vs Dender</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Club Brugge</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1st Nov 17:30</t>
+          <t>1st Nov 17:15</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>25 of 30 Tips</t>
+          <t>17 of 17 Tips</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.28</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Huachipato vs Universidad de Chile</t>
+          <t>Liverpool vs Aston Villa</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Universidad de Chile</t>
+          <t>Double Chance: X2</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>England</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2nd Nov 15:30</t>
+          <t>1st Nov 20:00</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>25 of 26 Tips</t>
+          <t>16 of 23 Tips</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>70</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>2.23</t>
         </is>
       </c>
     </row>
